--- a/assets/files/maestros/Campaña.xlsx
+++ b/assets/files/maestros/Campaña.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DFE58D-0A7F-46FA-880F-15D3D19126B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB27DF1-DAEC-4837-92AA-50EEFE8537C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="1110" windowWidth="21360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ruta_imagen</t>
   </si>
@@ -39,28 +39,21 @@
     <t>ruta_documento</t>
   </si>
   <si>
-    <t>Buenos dias Te saluda Christopher Monzón y hoy vengo a ofrecerte este producto genial para mantener tus alimentos</t>
-  </si>
-  <si>
     <t>mensaje_imagen</t>
-  </si>
-  <si>
-    <t>Este es un texto prueba de la imagen</t>
   </si>
   <si>
     <t>mensaje_video</t>
   </si>
   <si>
-    <t>Este es un mensaje de video</t>
+    <t>C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\campaña\modelok_Mesa de trabajo.png</t>
   </si>
   <si>
-    <t>C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\campaña\friobar.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\campaña\2559780578.mp4</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\campaña\catalogo-botas-saga.pdf</t>
+    <t>¡Hola! \u{1F929} Llegó el CyberWow a Mundo Negocio! Usa el cupón MUNDOWOW y ten S/.50 de descuento en nuestros productos. ¡Vive esta experiencia en Mundo Negocio! \u{1F640} &lt;br&gt;\
+¡Tu mejor opción a un solo clic! \u{1F449}\u{1F3FC} www.mundonegocio.com.pe/mundowow \u{1F448}\u{1F3FC}  &lt;br&gt;\
+\u{1F538} Compras seguras.  &lt;br&gt;\
+\u{1F538} Envíos rápidos. &lt;br&gt;\
+\u{1F538} Mejores precios del mercado. &lt;br&gt;\
+\u{1F92F}¿Necesitas ayuda con tu proceso de compra?\u{1F62E}</t>
   </si>
 </sst>
 </file>
@@ -130,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -152,6 +145,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,37 +452,29 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>

--- a/assets/files/maestros/Campaña.xlsx
+++ b/assets/files/maestros/Campaña.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\maestros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\PythonProjects\AppScraping\assets\files\maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB27DF1-DAEC-4837-92AA-50EEFE8537C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA82012-E982-46FE-8C57-16DD7FD7EFBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1110" windowWidth="21360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,15 +45,13 @@
     <t>mensaje_video</t>
   </si>
   <si>
-    <t>C:\Users\USER\Documents\PythonProjects\AppScraping\assets\files\campaña\modelok_Mesa de trabajo.png</t>
+    <t>HOLA! Celebra Fiestas Patrias con  XION\u{1F973} \u{1F1F5}\u{1F1EA} &lt;br&gt;\
+Solo por esta semana nuestra Silla Gamer Raven disponible en todos los colores. \u{1F440} &lt;br&gt;\
+VIVE ESTA EXPERIENCIA AL MÁXIMO ‼️ &lt;br&gt;\
+NO ESPERES MÁS Y OBTÉN LA TUYA.</t>
   </si>
   <si>
-    <t>¡Hola! \u{1F929} Llegó el CyberWow a Mundo Negocio! Usa el cupón MUNDOWOW y ten S/.50 de descuento en nuestros productos. ¡Vive esta experiencia en Mundo Negocio! \u{1F640} &lt;br&gt;\
-¡Tu mejor opción a un solo clic! \u{1F449}\u{1F3FC} www.mundonegocio.com.pe/mundowow \u{1F448}\u{1F3FC}  &lt;br&gt;\
-\u{1F538} Compras seguras.  &lt;br&gt;\
-\u{1F538} Envíos rápidos. &lt;br&gt;\
-\u{1F538} Mejores precios del mercado. &lt;br&gt;\
-\u{1F92F}¿Necesitas ayuda con tu proceso de compra?\u{1F62E}</t>
+    <t>C:\Users\Personal\Documents\PythonProjects\AppScraping\assets\files\campaña\i3_campaña2.jpg</t>
   </si>
 </sst>
 </file>
@@ -428,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -436,8 +434,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="92" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
@@ -464,36 +462,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="228" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -501,7 +499,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -756,14 +754,6 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/assets/files/maestros/Campaña.xlsx
+++ b/assets/files/maestros/Campaña.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\PythonProjects\AppScraping\assets\files\maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA82012-E982-46FE-8C57-16DD7FD7EFBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B643828-5D25-400C-A876-C3A800080D57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,13 +45,17 @@
     <t>mensaje_video</t>
   </si>
   <si>
-    <t>HOLA! Celebra Fiestas Patrias con  XION\u{1F973} \u{1F1F5}\u{1F1EA} &lt;br&gt;\
-Solo por esta semana nuestra Silla Gamer Raven disponible en todos los colores. \u{1F440} &lt;br&gt;\
-VIVE ESTA EXPERIENCIA AL MÁXIMO ‼️ &lt;br&gt;\
-NO ESPERES MÁS Y OBTÉN LA TUYA.</t>
+    <t>C:\Users\Personal\Documents\PythonProjects\AppScraping\assets\files\campaña\video_decokasa.mp4</t>
   </si>
   <si>
-    <t>C:\Users\Personal\Documents\PythonProjects\AppScraping\assets\files\campaña\i3_campaña2.jpg</t>
+    <t>\u{1F4A5}Llegaron los descuentos más esperados del año \u{1F4A5} #CYBERWOW \n\
+¡PISOS AUTOADHESIVOS DE PVC!  \n\
+Válido del 04/07/22 al 08/07/22 en nuestra tienda y WhatsApp. \n\
+Aprovecha el Cyber WOW y Remodela tu Hogar. \n\
+\u{1F4F2} WhatsApp: 947 154 969 \n\
+Whatsapp: https://bit.ly/DECO_MAYORISTAS_PISOS \n\
+Tienda física en: Av. Benavides 1980 – Miraflores \n\
+Envíos a todo el Perú \u{1F6F5}</t>
   </si>
 </sst>
 </file>
@@ -121,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -144,6 +148,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,16 +436,16 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
     <col min="2" max="2" width="94.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.7109375" customWidth="1"/>
+    <col min="5" max="5" width="91.42578125" customWidth="1"/>
     <col min="6" max="6" width="98.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -463,15 +470,15 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/assets/files/maestros/Campaña.xlsx
+++ b/assets/files/maestros/Campaña.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\PythonProjects\AppScraping\assets\files\maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B643828-5D25-400C-A876-C3A800080D57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19726DFD-C303-49BA-B773-B065975AF8A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,24 +50,17 @@
     <t>mensaje_video</t>
   </si>
   <si>
-    <t>C:\Users\Personal\Documents\PythonProjects\AppScraping\assets\files\campaña\video_decokasa.mp4</t>
+    <t>C:\Users\Personal\Documents\PythonProjects\AppScraping\assets\files\campaña\diciembre_flavia.jpg</t>
   </si>
   <si>
-    <t>\u{1F4A5}Llegaron los descuentos más esperados del año \u{1F4A5} #CYBERWOW \n\
-¡PISOS AUTOADHESIVOS DE PVC!  \n\
-Válido del 04/07/22 al 08/07/22 en nuestra tienda y WhatsApp. \n\
-Aprovecha el Cyber WOW y Remodela tu Hogar. \n\
-\u{1F4F2} WhatsApp: 947 154 969 \n\
-Whatsapp: https://bit.ly/DECO_MAYORISTAS_PISOS \n\
-Tienda física en: Av. Benavides 1980 – Miraflores \n\
-Envíos a todo el Perú \u{1F6F5}</t>
+    <t>\u{1F6A8}SUPER DESCUENTOS POR FIN DE AÑO\u{1F6A8} pusimos todos nuestros productos en oferta al por mayor.\u{1F631} Aprovecha para abastecer tu negocio con estas súper promociones. Valido solo hasta el 31 de diciembre.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +76,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -125,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -141,17 +154,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,14 +451,14 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
     <col min="2" max="2" width="94.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="99.7109375" customWidth="1"/>
     <col min="5" max="5" width="91.42578125" customWidth="1"/>
     <col min="6" max="6" width="98.5703125" bestFit="1" customWidth="1"/>
@@ -469,36 +484,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="10"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -526,7 +538,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
